--- a/about/kenpon-web2016.xlsx
+++ b/about/kenpon-web2016.xlsx
@@ -1025,6 +1025,90 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1104,90 +1188,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨 2" xfId="1"/>
@@ -1864,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1907,9 +1907,9 @@
       <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="36"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -1918,20 +1918,20 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="57" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="87"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="74"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="30"/>
       <c r="F7" s="34"/>
       <c r="G7" s="33"/>
@@ -1940,9 +1940,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="30"/>
       <c r="F8" s="34"/>
       <c r="G8" s="33"/>
@@ -1951,15 +1951,15 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="31"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="B10" s="29"/>
@@ -2069,144 +2069,144 @@
       <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
     </row>
     <row r="20" spans="1:8" ht="33" customHeight="1">
       <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
       <c r="B21" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
       <c r="B22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="88"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="B24" s="52"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1">
-      <c r="B25" s="52"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="60" t="s">
+      <c r="D25" s="89"/>
+      <c r="E25" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="61"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="89"/>
     </row>
     <row r="26" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B26" s="53"/>
-      <c r="C26" s="66" t="s">
+      <c r="B26" s="81"/>
+      <c r="C26" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="96"/>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1">
       <c r="B28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
       <c r="B29" s="7">
         <v>7149</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="80"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
       <c r="B30" s="7"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="B31" s="7"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="B32" s="7"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="52"/>
     </row>
     <row r="33" spans="2:8" ht="13.5" customHeight="1">
       <c r="B33" s="6"/>
@@ -2218,14 +2218,14 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2234,70 +2234,87 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="95"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="24.95" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="96"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="2:8" ht="24.95" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
-      <c r="F37" s="101"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="95"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="24.95" customHeight="1">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="98"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="96"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="54"/>
     </row>
     <row r="39" spans="2:8" ht="24.95" customHeight="1">
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="95"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="24.95" customHeight="1">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="97"/>
-      <c r="D40" s="98"/>
-      <c r="E40" s="98"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="96"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C20:H20"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="H39:H40"/>
@@ -2311,23 +2328,6 @@
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="H35:H36"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="B7:D8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/about/kenpon-web2016.xlsx
+++ b/about/kenpon-web2016.xlsx
@@ -89,16 +89,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品コード（4桁）</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>　Email</t>
     </r>
@@ -485,6 +475,13 @@
     <t>これからつくる iPhoneアプリ開発入門 ～Swiftではじめるプログラミングの第一歩～</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ISBN（10桁）</t>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +490,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -614,6 +611,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -912,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1025,90 +1028,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1188,6 +1107,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="通貨 2" xfId="1"/>
@@ -1864,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1882,7 +1897,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" customHeight="1">
       <c r="B1" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="44"/>
     </row>
@@ -1907,59 +1922,59 @@
       <c r="H4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="36"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
       <c r="H5" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1">
-      <c r="B7" s="100"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
       <c r="E7" s="30"/>
       <c r="F7" s="34"/>
       <c r="G7" s="33"/>
       <c r="H7" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1">
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="30"/>
       <c r="F8" s="34"/>
       <c r="G8" s="33"/>
       <c r="H8" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="31"/>
       <c r="E9" s="30"/>
-      <c r="F9" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="F9" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="B10" s="29"/>
@@ -1969,7 +1984,7 @@
       <c r="F10" s="26"/>
       <c r="G10" s="25"/>
       <c r="H10" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" ht="12">
@@ -1985,7 +2000,7 @@
     <row r="12" spans="1:8" s="15" customFormat="1" ht="17.25" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
@@ -1997,7 +2012,7 @@
     <row r="13" spans="1:8" s="15" customFormat="1" ht="17.25" customHeight="1">
       <c r="A13" s="19"/>
       <c r="B13" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="16"/>
@@ -2009,7 +2024,7 @@
     <row r="14" spans="1:8" s="15" customFormat="1" ht="17.25" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="16"/>
@@ -2021,7 +2036,7 @@
     <row r="15" spans="1:8" s="15" customFormat="1" ht="17.25" customHeight="1">
       <c r="A15" s="19"/>
       <c r="B15" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="16"/>
@@ -2032,7 +2047,7 @@
     <row r="16" spans="1:8" s="15" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="16"/>
@@ -2044,7 +2059,7 @@
     <row r="17" spans="1:8" s="15" customFormat="1" ht="17.25" customHeight="1">
       <c r="A17" s="19"/>
       <c r="B17" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="16"/>
@@ -2056,157 +2071,157 @@
     <row r="18" spans="1:8" ht="21" customHeight="1">
       <c r="D18" s="14"/>
       <c r="H18" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" customHeight="1">
       <c r="B19" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
+      <c r="E19" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
     </row>
     <row r="20" spans="1:8" ht="33" customHeight="1">
       <c r="B20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1">
       <c r="B21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="65"/>
+        <v>13</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
     </row>
     <row r="22" spans="1:8" ht="33.75" customHeight="1">
       <c r="B22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
+        <v>12</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
     </row>
     <row r="23" spans="1:8" ht="21" customHeight="1">
-      <c r="B23" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="68" t="s">
+      <c r="B23" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
+      <c r="C23" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="88"/>
     </row>
     <row r="24" spans="1:8" ht="33.75" customHeight="1">
-      <c r="B24" s="80"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
     </row>
     <row r="25" spans="1:8" ht="24.75" customHeight="1">
-      <c r="B25" s="80"/>
-      <c r="C25" s="88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="88" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="89"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B26" s="81"/>
-      <c r="C26" s="94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="68"/>
     </row>
     <row r="28" spans="1:8" ht="19.5" customHeight="1">
       <c r="B28" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="62"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="B29" s="7">
-        <v>7149</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
+      <c r="B29" s="103">
+        <v>4797387149</v>
+      </c>
+      <c r="C29" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
       <c r="B30" s="7"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
       <c r="B31" s="7"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
       <c r="B32" s="7"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
     </row>
     <row r="33" spans="2:8" ht="13.5" customHeight="1">
       <c r="B33" s="6"/>
@@ -2218,14 +2233,14 @@
       <c r="H33" s="4"/>
     </row>
     <row r="34" spans="2:8" ht="19.5" customHeight="1">
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94"/>
       <c r="H34" s="3" t="s">
         <v>4</v>
       </c>
@@ -2234,87 +2249,70 @@
       <c r="B35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="53"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="102"/>
+      <c r="H35" s="95"/>
     </row>
     <row r="36" spans="2:8" ht="24.95" customHeight="1">
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="54"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="96"/>
     </row>
     <row r="37" spans="2:8" ht="24.95" customHeight="1">
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="53"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="95"/>
     </row>
     <row r="38" spans="2:8" ht="24.95" customHeight="1">
       <c r="B38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="54"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="96"/>
     </row>
     <row r="39" spans="2:8" ht="24.95" customHeight="1">
       <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="53"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="95"/>
     </row>
     <row r="40" spans="2:8" ht="24.95" customHeight="1">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="54"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C20:H20"/>
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="H39:H40"/>
@@ -2328,6 +2326,23 @@
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="C31:H31"/>
     <mergeCell ref="H35:H36"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="B7:D8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
